--- a/Python/script/auto-labelling/model_results.xlsx
+++ b/Python/script/auto-labelling/model_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\PROJECT\Python\script\auto-labelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A945AFA-C34C-4A7B-A9E9-B731459956E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827B781A-7F39-4F0C-B69F-0A86ABFEED11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{830A0544-E844-44F6-953F-4378A8B534E0}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
   <si>
     <t>Model</t>
   </si>
@@ -149,14 +149,14 @@
   <si>
     <t xml:space="preserve"> F1-score</t>
   </si>
+  <si>
+    <t>Changes made</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.000"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -412,108 +412,106 @@
   </cellStyleXfs>
   <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="12" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -5200,7 +5198,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Anais Blenet" refreshedDate="45588.689428703707" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="18" xr:uid="{636FC8A1-6AC8-4AF9-9873-92B1592A8125}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="B2:I20" sheet="table results"/>
+    <worksheetSource ref="B1:I19" sheet="table results"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="Model" numFmtId="0">
@@ -5933,659 +5931,1104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF691FB-493A-400F-8B8D-CA08D27D8FBC}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11.36328125" customWidth="1"/>
     <col min="3" max="3" width="7.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="4.54296875" customWidth="1"/>
-    <col min="11" max="11" width="8" customWidth="1"/>
+    <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.453125" customWidth="1"/>
+    <col min="11" max="11" width="4.7265625" customWidth="1"/>
+    <col min="12" max="12" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
+    <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="5"/>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K1" s="10"/>
+      <c r="L1" s="5"/>
+      <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="14"/>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="4" t="s">
+    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="5"/>
+      <c r="B2" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="16">
+        <v>0.84</v>
+      </c>
+      <c r="E2" s="17">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="F2" s="17">
+        <v>0.97</v>
+      </c>
+      <c r="G2" s="18">
+        <v>0.51</v>
+      </c>
+      <c r="H2" s="18">
+        <v>0.45900000000000002</v>
+      </c>
+      <c r="I2" s="17">
+        <v>0.46400000000000002</v>
+      </c>
+      <c r="J2" s="34"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
     </row>
-    <row r="3" spans="1:12" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="14"/>
-      <c r="B3" s="17" t="s">
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="5"/>
+      <c r="B3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="22">
+      <c r="C3" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="18">
+        <v>0.73</v>
+      </c>
+      <c r="E3" s="20">
+        <v>1</v>
+      </c>
+      <c r="F3" s="17">
+        <v>0.94</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0.52</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0.51100000000000001</v>
+      </c>
+      <c r="I3" s="17">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="J3" s="34"/>
+      <c r="K3" s="9"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="5"/>
+      <c r="B4" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="21">
+        <v>0.85</v>
+      </c>
+      <c r="E4" s="17">
+        <v>1</v>
+      </c>
+      <c r="F4" s="17">
+        <v>0.96</v>
+      </c>
+      <c r="G4" s="17">
+        <v>0.68</v>
+      </c>
+      <c r="H4" s="17">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="I4" s="17">
+        <v>0.37</v>
+      </c>
+      <c r="J4" s="34"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5"/>
+      <c r="B5" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.79</v>
+      </c>
+      <c r="E5" s="17">
+        <v>1</v>
+      </c>
+      <c r="F5" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="G5" s="17">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="H5" s="17">
+        <v>0.51600000000000001</v>
+      </c>
+      <c r="I5" s="17">
+        <v>0.378</v>
+      </c>
+      <c r="J5" s="34"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="5"/>
+      <c r="B6" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="17">
+        <v>0.81</v>
+      </c>
+      <c r="E6" s="17">
+        <v>1</v>
+      </c>
+      <c r="F6" s="17">
+        <v>0.94</v>
+      </c>
+      <c r="G6" s="17">
+        <v>0.65</v>
+      </c>
+      <c r="H6" s="17">
+        <v>0.624</v>
+      </c>
+      <c r="I6" s="17">
+        <v>0.377</v>
+      </c>
+      <c r="J6" s="34"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+    </row>
+    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="5"/>
+      <c r="B7" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="17">
+        <v>0.82</v>
+      </c>
+      <c r="E7" s="17">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0.93</v>
+      </c>
+      <c r="G7" s="17">
+        <v>0.71</v>
+      </c>
+      <c r="H7" s="17">
+        <v>0.68100000000000005</v>
+      </c>
+      <c r="I7" s="17">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="J7" s="34"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="5"/>
+      <c r="B8" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="17">
         <v>0.84</v>
       </c>
-      <c r="E3" s="23">
+      <c r="E8" s="17">
         <v>1</v>
       </c>
-      <c r="F3" s="23">
-        <v>0.97</v>
-      </c>
-      <c r="G3" s="24">
-        <v>0.51</v>
-      </c>
-      <c r="H3" s="24">
-        <v>0.45900000000000002</v>
-      </c>
-      <c r="I3" s="23">
-        <v>0.46400000000000002</v>
-      </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="F8" s="17">
+        <v>0.96</v>
+      </c>
+      <c r="G8" s="17">
+        <v>0.78</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="I8" s="17">
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="J8" s="34"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
     </row>
-    <row r="4" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="14"/>
-      <c r="B4" s="17" t="s">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" s="5"/>
+      <c r="B9" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="24">
-        <v>0.73</v>
-      </c>
-      <c r="E4" s="25">
+      <c r="C9" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="17">
+        <v>0.86</v>
+      </c>
+      <c r="E9" s="17">
         <v>1</v>
       </c>
-      <c r="F4" s="23">
+      <c r="F9" s="17">
         <v>0.94</v>
       </c>
-      <c r="G4" s="23">
-        <v>0.52</v>
-      </c>
-      <c r="H4" s="23">
-        <v>0.51100000000000001</v>
-      </c>
-      <c r="I4" s="23">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="14" t="s">
-        <v>28</v>
-      </c>
+      <c r="G9" s="17">
+        <v>0.81</v>
+      </c>
+      <c r="H9" s="17">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="I9" s="17">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="J9" s="34"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="5"/>
+      <c r="M9" s="5"/>
     </row>
-    <row r="5" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="14"/>
-      <c r="B5" s="17" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" s="5"/>
+      <c r="B10" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="26">
+      <c r="C10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="17">
+        <v>0.86</v>
+      </c>
+      <c r="E10" s="17">
+        <v>1</v>
+      </c>
+      <c r="F10" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="G10" s="17">
+        <v>0.81</v>
+      </c>
+      <c r="H10" s="17">
+        <v>0.83</v>
+      </c>
+      <c r="I10" s="17">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="J10" s="34"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+    </row>
+    <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="5"/>
+      <c r="B11" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="17">
+        <v>0.86</v>
+      </c>
+      <c r="E11" s="17">
+        <v>1</v>
+      </c>
+      <c r="F11" s="17">
+        <v>0.95</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0.79</v>
+      </c>
+      <c r="H11" s="17">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="I11" s="17">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="J11" s="34"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+    </row>
+    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="5"/>
+      <c r="B12" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="17">
+        <v>0.86</v>
+      </c>
+      <c r="E12" s="17">
+        <v>1</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0.93</v>
+      </c>
+      <c r="G12" s="17">
+        <v>0.78</v>
+      </c>
+      <c r="H12" s="17">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="I12" s="17">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="J12" s="34"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="5"/>
+      <c r="M12" s="5"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" s="5"/>
+      <c r="B13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D13" s="17">
         <v>0.85</v>
       </c>
-      <c r="E5" s="23">
+      <c r="E13" s="17">
         <v>1</v>
       </c>
-      <c r="F5" s="23">
-        <v>0.96</v>
-      </c>
-      <c r="G5" s="23">
-        <v>0.68</v>
-      </c>
-      <c r="H5" s="23">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="I5" s="23">
-        <v>0.37</v>
-      </c>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
+      <c r="F13" s="17">
+        <v>0.94</v>
+      </c>
+      <c r="G13" s="17">
+        <v>0.79</v>
+      </c>
+      <c r="H13" s="17">
+        <v>0.79100000000000004</v>
+      </c>
+      <c r="I13" s="17">
+        <v>0.435</v>
+      </c>
+      <c r="J13" s="34"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
     </row>
-    <row r="6" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="14"/>
-      <c r="B6" s="17" t="s">
+    <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="5"/>
+      <c r="B14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="23">
-        <v>0.79</v>
-      </c>
-      <c r="E6" s="23">
-        <v>1</v>
-      </c>
-      <c r="F6" s="23">
-        <v>0.95</v>
-      </c>
-      <c r="G6" s="23">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="H6" s="23">
-        <v>0.51600000000000001</v>
-      </c>
-      <c r="I6" s="23">
-        <v>0.378</v>
-      </c>
-      <c r="J6" s="14"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="14"/>
-      <c r="B7" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="23">
-        <v>0.81</v>
-      </c>
-      <c r="E7" s="23">
-        <v>1</v>
-      </c>
-      <c r="F7" s="23">
-        <v>0.94</v>
-      </c>
-      <c r="G7" s="23">
-        <v>0.65</v>
-      </c>
-      <c r="H7" s="23">
-        <v>0.624</v>
-      </c>
-      <c r="I7" s="23">
-        <v>0.377</v>
-      </c>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-    </row>
-    <row r="8" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="14"/>
-      <c r="B8" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D8" s="23">
-        <v>0.82</v>
-      </c>
-      <c r="E8" s="23">
-        <v>1</v>
-      </c>
-      <c r="F8" s="24">
-        <v>0.93</v>
-      </c>
-      <c r="G8" s="23">
-        <v>0.71</v>
-      </c>
-      <c r="H8" s="23">
-        <v>0.68100000000000005</v>
-      </c>
-      <c r="I8" s="23">
-        <v>0.35899999999999999</v>
-      </c>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A9" s="14"/>
-      <c r="B9" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="23">
-        <v>0.84</v>
-      </c>
-      <c r="E9" s="23">
-        <v>1</v>
-      </c>
-      <c r="F9" s="23">
-        <v>0.96</v>
-      </c>
-      <c r="G9" s="23">
-        <v>0.78</v>
-      </c>
-      <c r="H9" s="23">
-        <v>0.79200000000000004</v>
-      </c>
-      <c r="I9" s="23">
-        <v>0.39500000000000002</v>
-      </c>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A10" s="14"/>
-      <c r="B10" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="23">
+      <c r="C14" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D14" s="23">
         <v>0.86</v>
-      </c>
-      <c r="E10" s="23">
-        <v>1</v>
-      </c>
-      <c r="F10" s="23">
-        <v>0.94</v>
-      </c>
-      <c r="G10" s="23">
-        <v>0.81</v>
-      </c>
-      <c r="H10" s="23">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="I10" s="23">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A11" s="14"/>
-      <c r="B11" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D11" s="23">
-        <v>0.86</v>
-      </c>
-      <c r="E11" s="23">
-        <v>1</v>
-      </c>
-      <c r="F11" s="23">
-        <v>0.95</v>
-      </c>
-      <c r="G11" s="23">
-        <v>0.81</v>
-      </c>
-      <c r="H11" s="23">
-        <v>0.83</v>
-      </c>
-      <c r="I11" s="23">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-    </row>
-    <row r="12" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="14"/>
-      <c r="B12" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D12" s="23">
-        <v>0.86</v>
-      </c>
-      <c r="E12" s="23">
-        <v>1</v>
-      </c>
-      <c r="F12" s="23">
-        <v>0.95</v>
-      </c>
-      <c r="G12" s="23">
-        <v>0.79</v>
-      </c>
-      <c r="H12" s="23">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="I12" s="23">
-        <v>0.39700000000000002</v>
-      </c>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-    </row>
-    <row r="13" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="14"/>
-      <c r="B13" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="23">
-        <v>0.86</v>
-      </c>
-      <c r="E13" s="23">
-        <v>1</v>
-      </c>
-      <c r="F13" s="24">
-        <v>0.93</v>
-      </c>
-      <c r="G13" s="23">
-        <v>0.78</v>
-      </c>
-      <c r="H13" s="23">
-        <v>0.78100000000000003</v>
-      </c>
-      <c r="I13" s="23">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A14" s="14"/>
-      <c r="B14" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="23">
-        <v>0.85</v>
       </c>
       <c r="E14" s="23">
         <v>1</v>
       </c>
       <c r="F14" s="23">
-        <v>0.94</v>
-      </c>
-      <c r="G14" s="23">
-        <v>0.79</v>
-      </c>
-      <c r="H14" s="23">
-        <v>0.79100000000000004</v>
-      </c>
-      <c r="I14" s="23">
-        <v>0.435</v>
-      </c>
-      <c r="J14" s="14"/>
-      <c r="K14" s="14"/>
-      <c r="L14" s="14"/>
+        <v>0.96</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0.8</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0.82</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0.41</v>
+      </c>
+      <c r="J14" s="35"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="14"/>
-      <c r="B15" s="17" t="s">
-        <v>32</v>
+    <row r="15" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="5"/>
+      <c r="B15" s="12" t="s">
+        <v>22</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D15" s="27">
-        <v>0.86</v>
-      </c>
-      <c r="E15" s="27">
+        <v>23</v>
+      </c>
+      <c r="D15" s="21">
+        <v>0.89</v>
+      </c>
+      <c r="E15" s="21">
         <v>1</v>
       </c>
-      <c r="F15" s="27">
-        <v>0.96</v>
-      </c>
-      <c r="G15" s="22">
-        <v>0.8</v>
-      </c>
-      <c r="H15" s="22">
-        <v>0.82</v>
-      </c>
-      <c r="I15" s="22">
-        <v>0.41</v>
-      </c>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
+      <c r="F15" s="21">
+        <v>0.97</v>
+      </c>
+      <c r="G15" s="24">
+        <v>0.83</v>
+      </c>
+      <c r="H15" s="24">
+        <v>0.877</v>
+      </c>
+      <c r="I15" s="24">
+        <v>0.39</v>
+      </c>
+      <c r="J15" s="36"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="5"/>
+      <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="14"/>
-      <c r="B16" s="18" t="s">
+    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="5"/>
+      <c r="B16" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D16" s="26">
-        <v>0.89</v>
-      </c>
-      <c r="E16" s="26">
+      <c r="C16" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.9</v>
+      </c>
+      <c r="E16" s="17">
         <v>1</v>
       </c>
-      <c r="F16" s="26">
+      <c r="F16" s="17">
         <v>0.97</v>
       </c>
-      <c r="G16" s="28">
+      <c r="G16" s="17">
         <v>0.83</v>
       </c>
-      <c r="H16" s="28">
-        <v>0.877</v>
-      </c>
-      <c r="I16" s="28">
-        <v>0.39</v>
-      </c>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
+      <c r="H16" s="17">
+        <v>0.84</v>
+      </c>
+      <c r="I16" s="17">
+        <v>0.46200000000000002</v>
+      </c>
+      <c r="J16" s="34"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="14"/>
-      <c r="B17" s="18" t="s">
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="5"/>
+      <c r="B17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="22">
-        <v>0.9</v>
-      </c>
-      <c r="E17" s="23">
+      <c r="C17" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="26">
+        <v>0.93</v>
+      </c>
+      <c r="E17" s="27">
         <v>1</v>
       </c>
-      <c r="F17" s="23">
+      <c r="F17" s="16">
         <v>0.97</v>
       </c>
-      <c r="G17" s="23">
+      <c r="G17" s="17">
         <v>0.83</v>
       </c>
-      <c r="H17" s="23">
+      <c r="H17" s="16">
+        <v>0.84099999999999997</v>
+      </c>
+      <c r="I17" s="16">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="J17" s="35"/>
+      <c r="K17" s="9"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+    </row>
+    <row r="18" spans="1:13" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="5"/>
+      <c r="B18" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="28">
+        <v>0.91</v>
+      </c>
+      <c r="E18" s="29">
+        <v>1</v>
+      </c>
+      <c r="F18" s="26">
+        <v>0.98</v>
+      </c>
+      <c r="G18" s="26">
         <v>0.84</v>
       </c>
-      <c r="I17" s="23">
-        <v>0.46200000000000002</v>
-      </c>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
+      <c r="H18" s="30">
+        <v>0.85299999999999998</v>
+      </c>
+      <c r="I18" s="24">
+        <v>0.379</v>
+      </c>
+      <c r="J18" s="36"/>
+      <c r="K18" s="9"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
     </row>
-    <row r="18" spans="1:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="14"/>
-      <c r="B18" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="29">
-        <v>0.93</v>
-      </c>
-      <c r="E18" s="30">
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="5"/>
+      <c r="B19" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="32">
+        <v>0.92</v>
+      </c>
+      <c r="E19" s="33">
         <v>1</v>
       </c>
-      <c r="F18" s="22">
-        <v>0.97</v>
-      </c>
-      <c r="G18" s="23">
-        <v>0.83</v>
-      </c>
-      <c r="H18" s="22">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="I18" s="22">
-        <v>0.55800000000000005</v>
-      </c>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
+      <c r="F19" s="26">
+        <v>0.98</v>
+      </c>
+      <c r="G19" s="26">
+        <v>0.84</v>
+      </c>
+      <c r="H19" s="26">
+        <v>0.85599999999999998</v>
+      </c>
+      <c r="I19" s="32">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="J19" s="34"/>
+      <c r="K19" s="9"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
     </row>
-    <row r="19" spans="1:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="14"/>
-      <c r="B19" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="31">
-        <v>0.91</v>
-      </c>
-      <c r="E19" s="32">
-        <v>1</v>
-      </c>
-      <c r="F19" s="29">
-        <v>0.98</v>
-      </c>
-      <c r="G19" s="29">
-        <v>0.84</v>
-      </c>
-      <c r="H19" s="33">
-        <v>0.85299999999999998</v>
-      </c>
-      <c r="I19" s="28">
-        <v>0.379</v>
-      </c>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" s="5"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17"/>
+      <c r="H20" s="17"/>
+      <c r="I20" s="17"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="9"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
     </row>
-    <row r="20" spans="1:12" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="14"/>
-      <c r="B20" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="D20" s="34">
-        <v>0.92</v>
-      </c>
-      <c r="E20" s="35">
-        <v>1</v>
-      </c>
-      <c r="F20" s="29">
-        <v>0.98</v>
-      </c>
-      <c r="G20" s="29">
-        <v>0.84</v>
-      </c>
-      <c r="H20" s="29">
-        <v>0.85599999999999998</v>
-      </c>
-      <c r="I20" s="34">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" s="5"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="16"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17"/>
+      <c r="H21" s="17"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="9"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" s="5"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17"/>
+      <c r="H22" s="17"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="9"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A22" s="14"/>
-      <c r="B22" s="14"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" s="5"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="17"/>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17"/>
+      <c r="H23" s="17"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="9"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A24" s="5"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17"/>
+      <c r="H24" s="17"/>
+      <c r="I24" s="17"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="9"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A25" s="5"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17"/>
+      <c r="H25" s="17"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="9"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A26" s="5"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17"/>
+      <c r="H26" s="17"/>
+      <c r="I26" s="17"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="9"/>
+      <c r="L26" s="5"/>
+      <c r="M26" s="5"/>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A27" s="5"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17"/>
+      <c r="H27" s="17"/>
+      <c r="I27" s="17"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="9"/>
+      <c r="L27" s="5"/>
+      <c r="M27" s="5"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A31" s="5"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+      <c r="E31" s="5"/>
+      <c r="F31" s="5"/>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="5"/>
+      <c r="F32" s="5"/>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="5"/>
+      <c r="M33" s="5"/>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+      <c r="E35" s="5"/>
+      <c r="F35" s="5"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="5"/>
+      <c r="M35" s="5"/>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+      <c r="E36" s="5"/>
+      <c r="F36" s="5"/>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5"/>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="5"/>
+      <c r="M37" s="5"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="5"/>
+      <c r="G38" s="5"/>
+      <c r="H38" s="5"/>
+      <c r="I38" s="5"/>
+      <c r="J38" s="5"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A39" s="5"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A40" s="5"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="5"/>
+      <c r="M40" s="5"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A41" s="5"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
+      <c r="E41" s="5"/>
+      <c r="F41" s="5"/>
+      <c r="G41" s="5"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5"/>
+      <c r="J41" s="5"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="5"/>
+      <c r="M41" s="5"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="5"/>
+      <c r="M42" s="5"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="5"/>
+      <c r="M43" s="5"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="5"/>
+      <c r="M45" s="5"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="5"/>
+      <c r="M46" s="5"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A48" s="5"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A49" s="5"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A50" s="5"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A51" s="5"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:I15">
-    <sortCondition ref="B2:B15"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I14">
+    <sortCondition ref="B1:B14"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{2AECB3E9-93A7-4FB9-9548-53047FACCA86}"/>
+    <hyperlink ref="H1" r:id="rId1" xr:uid="{2AECB3E9-93A7-4FB9-9548-53047FACCA86}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6613,7 +7056,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B3" t="s">
@@ -6627,259 +7070,259 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="21" t="s">
+      <c r="A4" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="36">
+      <c r="B4" s="8">
         <v>0.84</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="8">
         <v>0.45900000000000002</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="8">
         <v>0.51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="21" t="s">
+      <c r="A5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="8">
         <v>0.73</v>
       </c>
-      <c r="C5" s="36">
+      <c r="C5" s="8">
         <v>0.51100000000000001</v>
       </c>
-      <c r="D5" s="36">
+      <c r="D5" s="8">
         <v>0.52</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="36">
+      <c r="B6" s="8">
         <v>0.85</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="8">
         <v>0.67300000000000004</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="8">
         <v>0.68</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="8">
         <v>0.79</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="8">
         <v>0.51600000000000001</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="8">
         <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="36">
+      <c r="B8" s="8">
         <v>0.81</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="8">
         <v>0.624</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="8">
         <v>0.65</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="21" t="s">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="36">
+      <c r="B9" s="8">
         <v>0.82</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="8">
         <v>0.68100000000000005</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="8">
         <v>0.71</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="36">
+      <c r="B10" s="8">
         <v>0.84</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="8">
         <v>0.79200000000000004</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="8">
         <v>0.78</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="36">
+      <c r="B11" s="8">
         <v>0.86</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="8">
         <v>0.81499999999999995</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="8">
         <v>0.81</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="36">
+      <c r="B12" s="8">
         <v>0.86</v>
       </c>
-      <c r="C12" s="36">
+      <c r="C12" s="8">
         <v>0.83</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="8">
         <v>0.81</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="21" t="s">
+      <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="36">
+      <c r="B13" s="8">
         <v>0.86</v>
       </c>
-      <c r="C13" s="36">
+      <c r="C13" s="8">
         <v>0.80500000000000005</v>
       </c>
-      <c r="D13" s="36">
+      <c r="D13" s="8">
         <v>0.79</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="21" t="s">
+      <c r="A14" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="36">
+      <c r="B14" s="8">
         <v>0.86</v>
       </c>
-      <c r="C14" s="36">
+      <c r="C14" s="8">
         <v>0.78100000000000003</v>
       </c>
-      <c r="D14" s="36">
+      <c r="D14" s="8">
         <v>0.78</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="36">
+      <c r="B15" s="8">
         <v>0.85</v>
       </c>
-      <c r="C15" s="36">
+      <c r="C15" s="8">
         <v>0.79100000000000004</v>
       </c>
-      <c r="D15" s="36">
+      <c r="D15" s="8">
         <v>0.79</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="36">
+      <c r="B16" s="8">
         <v>0.86</v>
       </c>
-      <c r="C16" s="36">
+      <c r="C16" s="8">
         <v>0.82</v>
       </c>
-      <c r="D16" s="36">
+      <c r="D16" s="8">
         <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="21" t="s">
+      <c r="A17" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="36">
+      <c r="B17" s="8">
         <v>0.89</v>
       </c>
-      <c r="C17" s="36">
+      <c r="C17" s="8">
         <v>0.877</v>
       </c>
-      <c r="D17" s="36">
+      <c r="D17" s="8">
         <v>0.83</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="21" t="s">
+      <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="36">
+      <c r="B18" s="8">
         <v>0.9</v>
       </c>
-      <c r="C18" s="36">
+      <c r="C18" s="8">
         <v>0.84</v>
       </c>
-      <c r="D18" s="36">
+      <c r="D18" s="8">
         <v>0.83</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="36">
+      <c r="B19" s="8">
         <v>0.93</v>
       </c>
-      <c r="C19" s="36">
+      <c r="C19" s="8">
         <v>0.84099999999999997</v>
       </c>
-      <c r="D19" s="36">
+      <c r="D19" s="8">
         <v>0.83</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="36">
+      <c r="B20" s="8">
         <v>0.91</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="8">
         <v>0.85299999999999998</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="8">
         <v>0.84</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="21" t="s">
+      <c r="A21" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="36">
+      <c r="B21" s="8">
         <v>0.92</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="8">
         <v>0.85599999999999998</v>
       </c>
-      <c r="D21" s="36">
+      <c r="D21" s="8">
         <v>0.84</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="21" t="s">
+      <c r="A22" s="7" t="s">
         <v>31</v>
       </c>
       <c r="B22">

--- a/Python/script/auto-labelling/model_results.xlsx
+++ b/Python/script/auto-labelling/model_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\PROJECT\Python\script\auto-labelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{827B781A-7F39-4F0C-B69F-0A86ABFEED11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1FF949-9F56-46F1-89D4-195D4AC09E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{830A0544-E844-44F6-953F-4378A8B534E0}"/>
+    <workbookView xWindow="7270" yWindow="0" windowWidth="12020" windowHeight="10890" xr2:uid="{830A0544-E844-44F6-953F-4378A8B534E0}"/>
   </bookViews>
   <sheets>
     <sheet name="table results" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
   <si>
     <t>Model</t>
   </si>
@@ -151,6 +151,33 @@
   </si>
   <si>
     <t>Changes made</t>
+  </si>
+  <si>
+    <t>Using pre-trained weights of it17, ran for 20 epcohs and patience 10</t>
+  </si>
+  <si>
+    <t>Moved back to optimizer AdamW for 35 epochs, 15 patience on the s model with no pre-trained weights</t>
+  </si>
+  <si>
+    <t>50 epoch, patience 15, pre-trained weights of it14, optimizer AdamW, Val=True seed 1 img size 400 (416) batch 16 cache = disk</t>
+  </si>
+  <si>
+    <t>Same settings as it14 + pre-trained weights of it14</t>
+  </si>
+  <si>
+    <t>Re-labelled all the images at this point, ran for 20 epoch, patience 10, no pre-trained weights,  seed 1, img size 400 (416) batch 16 cache = disk val = True and optimizer AdamW</t>
+  </si>
+  <si>
+    <t>Lost the notes</t>
+  </si>
+  <si>
+    <t>Using yolov8 labels; training with the fine-tuned weights on 30 epochs, patience 20, seed 1 batch 16 cache = disk</t>
+  </si>
+  <si>
+    <t>Playing with the hyp.yaml file and using yolo labels, also I did not put the seed parameter until it8 so most of these results are not great. Trained for 10 epochs, kept cls = 1.5 and increase box loss to 0.1 and using it1 weights</t>
+  </si>
+  <si>
+    <t>Playing with hyp.yaml file with lr=0.001 for 20 epochs and using pre-trained weights from it0 (lost the files)</t>
   </si>
 </sst>
 </file>
@@ -410,7 +437,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -430,8 +457,7 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5933,9 +5959,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF691FB-493A-400F-8B8D-CA08D27D8FBC}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M9" sqref="M9"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5977,133 +6003,141 @@
       <c r="J1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="10"/>
+      <c r="K1" s="9"/>
       <c r="L1" s="5"/>
       <c r="M1" s="5"/>
     </row>
-    <row r="2" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="16">
+      <c r="D2" s="15">
         <v>0.84</v>
       </c>
-      <c r="E2" s="17">
+      <c r="E2" s="16">
         <v>1</v>
       </c>
-      <c r="F2" s="17">
+      <c r="F2" s="16">
         <v>0.97</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="17">
         <v>0.51</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="17">
         <v>0.45900000000000002</v>
       </c>
-      <c r="I2" s="17">
+      <c r="I2" s="16">
         <v>0.46400000000000002</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="9"/>
+      <c r="J2" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" s="5"/>
       <c r="L2" s="5"/>
       <c r="M2" s="5"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="5"/>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="18">
+      <c r="D3" s="17">
         <v>0.73</v>
       </c>
-      <c r="E3" s="20">
+      <c r="E3" s="19">
         <v>1</v>
       </c>
-      <c r="F3" s="17">
+      <c r="F3" s="16">
         <v>0.94</v>
       </c>
-      <c r="G3" s="17">
+      <c r="G3" s="16">
         <v>0.52</v>
       </c>
-      <c r="H3" s="17">
+      <c r="H3" s="16">
         <v>0.51100000000000001</v>
       </c>
-      <c r="I3" s="17">
+      <c r="I3" s="16">
         <v>0.46200000000000002</v>
       </c>
-      <c r="J3" s="34"/>
-      <c r="K3" s="9"/>
+      <c r="J3" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K3" s="5"/>
       <c r="L3" s="3"/>
       <c r="M3" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" ht="131" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="5"/>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="21">
+      <c r="D4" s="20">
         <v>0.85</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="16">
         <v>1</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="16">
         <v>0.96</v>
       </c>
-      <c r="G4" s="17">
+      <c r="G4" s="16">
         <v>0.68</v>
       </c>
-      <c r="H4" s="17">
+      <c r="H4" s="16">
         <v>0.67300000000000004</v>
       </c>
-      <c r="I4" s="17">
+      <c r="I4" s="16">
         <v>0.37</v>
       </c>
-      <c r="J4" s="34"/>
-      <c r="K4" s="9"/>
+      <c r="J4" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="5"/>
       <c r="L4" s="5"/>
       <c r="M4" s="5"/>
     </row>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5"/>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="16">
         <v>0.79</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="16">
         <v>1</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="16">
         <v>0.95</v>
       </c>
-      <c r="G5" s="17">
+      <c r="G5" s="16">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H5" s="17">
+      <c r="H5" s="16">
         <v>0.51600000000000001</v>
       </c>
-      <c r="I5" s="17">
+      <c r="I5" s="16">
         <v>0.378</v>
       </c>
-      <c r="J5" s="34"/>
-      <c r="K5" s="9"/>
+      <c r="J5" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="5"/>
       <c r="L5" s="4"/>
       <c r="M5" s="5" t="s">
         <v>29</v>
@@ -6111,555 +6145,583 @@
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="5"/>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="16">
         <v>0.81</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="16">
         <v>1</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <v>0.94</v>
       </c>
-      <c r="G6" s="17">
+      <c r="G6" s="16">
         <v>0.65</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="16">
         <v>0.624</v>
       </c>
-      <c r="I6" s="17">
+      <c r="I6" s="16">
         <v>0.377</v>
       </c>
-      <c r="J6" s="34"/>
-      <c r="K6" s="9"/>
+      <c r="J6" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="5"/>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="16">
         <v>0.82</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="16">
         <v>1</v>
       </c>
-      <c r="F7" s="18">
+      <c r="F7" s="17">
         <v>0.93</v>
       </c>
-      <c r="G7" s="17">
+      <c r="G7" s="16">
         <v>0.71</v>
       </c>
-      <c r="H7" s="17">
+      <c r="H7" s="16">
         <v>0.68100000000000005</v>
       </c>
-      <c r="I7" s="17">
+      <c r="I7" s="16">
         <v>0.35899999999999999</v>
       </c>
-      <c r="J7" s="34"/>
-      <c r="K7" s="9"/>
+      <c r="J7" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="5"/>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="16">
         <v>0.84</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="16">
         <v>1</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="16">
         <v>0.96</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="16">
         <v>0.78</v>
       </c>
-      <c r="H8" s="17">
+      <c r="H8" s="16">
         <v>0.79200000000000004</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <v>0.39500000000000002</v>
       </c>
-      <c r="J8" s="34"/>
-      <c r="K8" s="9"/>
+      <c r="J8" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
       <c r="A9" s="5"/>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="16">
         <v>0.86</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="16">
         <v>1</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="16">
         <v>0.94</v>
       </c>
-      <c r="G9" s="17">
+      <c r="G9" s="16">
         <v>0.81</v>
       </c>
-      <c r="H9" s="17">
+      <c r="H9" s="16">
         <v>0.81499999999999995</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="16">
         <v>0.40699999999999997</v>
       </c>
-      <c r="J9" s="34"/>
-      <c r="K9" s="9"/>
+      <c r="J9" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="5"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="5"/>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="16">
         <v>0.86</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="16">
         <v>1</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="16">
         <v>0.95</v>
       </c>
-      <c r="G10" s="17">
+      <c r="G10" s="16">
         <v>0.81</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="16">
         <v>0.83</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>0.42499999999999999</v>
       </c>
-      <c r="J10" s="34"/>
-      <c r="K10" s="9"/>
+      <c r="J10" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K10" s="5"/>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="5"/>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="16">
         <v>0.86</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="16">
         <v>1</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="16">
         <v>0.95</v>
       </c>
-      <c r="G11" s="17">
+      <c r="G11" s="16">
         <v>0.79</v>
       </c>
-      <c r="H11" s="17">
+      <c r="H11" s="16">
         <v>0.80500000000000005</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>0.39700000000000002</v>
       </c>
-      <c r="J11" s="34"/>
-      <c r="K11" s="9"/>
+      <c r="J11" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="16">
         <v>0.86</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="16">
         <v>1</v>
       </c>
-      <c r="F12" s="18">
+      <c r="F12" s="17">
         <v>0.93</v>
       </c>
-      <c r="G12" s="17">
+      <c r="G12" s="16">
         <v>0.78</v>
       </c>
-      <c r="H12" s="17">
+      <c r="H12" s="16">
         <v>0.78100000000000003</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>0.41299999999999998</v>
       </c>
-      <c r="J12" s="34"/>
-      <c r="K12" s="9"/>
+      <c r="J12" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="5"/>
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="5"/>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="16">
         <v>0.85</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="16">
         <v>1</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="16">
         <v>0.94</v>
       </c>
-      <c r="G13" s="17">
+      <c r="G13" s="16">
         <v>0.79</v>
       </c>
-      <c r="H13" s="17">
+      <c r="H13" s="16">
         <v>0.79100000000000004</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <v>0.435</v>
       </c>
-      <c r="J13" s="34"/>
-      <c r="K13" s="9"/>
+      <c r="J13" s="33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K13" s="5"/>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="5"/>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="22" t="s">
+      <c r="C14" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <v>0.86</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <v>1</v>
       </c>
-      <c r="F14" s="23">
+      <c r="F14" s="22">
         <v>0.96</v>
       </c>
-      <c r="G14" s="16">
+      <c r="G14" s="15">
         <v>0.8</v>
       </c>
-      <c r="H14" s="16">
+      <c r="H14" s="15">
         <v>0.82</v>
       </c>
-      <c r="I14" s="16">
+      <c r="I14" s="15">
         <v>0.41</v>
       </c>
-      <c r="J14" s="35"/>
-      <c r="K14" s="9"/>
+      <c r="J14" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="5"/>
       <c r="L14" s="5"/>
       <c r="M14" s="5"/>
     </row>
-    <row r="15" spans="1:13" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" ht="102" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A15" s="5"/>
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="21">
+      <c r="D15" s="20">
         <v>0.89</v>
       </c>
-      <c r="E15" s="21">
+      <c r="E15" s="20">
         <v>1</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="20">
         <v>0.97</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="23">
         <v>0.83</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="23">
         <v>0.877</v>
       </c>
-      <c r="I15" s="24">
+      <c r="I15" s="23">
         <v>0.39</v>
       </c>
-      <c r="J15" s="36"/>
-      <c r="K15" s="9"/>
+      <c r="J15" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="K15" s="5"/>
       <c r="L15" s="5"/>
       <c r="M15" s="5"/>
     </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="5"/>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="16">
+      <c r="D16" s="15">
         <v>0.9</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="16">
         <v>1</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="16">
         <v>0.97</v>
       </c>
-      <c r="G16" s="17">
+      <c r="G16" s="16">
         <v>0.83</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="16">
         <v>0.84</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="16">
         <v>0.46200000000000002</v>
       </c>
-      <c r="J16" s="34"/>
-      <c r="K16" s="9"/>
+      <c r="J16" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="5"/>
       <c r="L16" s="5"/>
       <c r="M16" s="5"/>
     </row>
-    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" ht="73" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="24" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="26">
+      <c r="D17" s="25">
         <v>0.93</v>
       </c>
-      <c r="E17" s="27">
+      <c r="E17" s="26">
         <v>1</v>
       </c>
-      <c r="F17" s="16">
+      <c r="F17" s="15">
         <v>0.97</v>
       </c>
-      <c r="G17" s="17">
+      <c r="G17" s="16">
         <v>0.83</v>
       </c>
-      <c r="H17" s="16">
+      <c r="H17" s="15">
         <v>0.84099999999999997</v>
       </c>
-      <c r="I17" s="16">
+      <c r="I17" s="15">
         <v>0.55800000000000005</v>
       </c>
-      <c r="J17" s="35"/>
-      <c r="K17" s="9"/>
+      <c r="J17" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="K17" s="5"/>
       <c r="L17" s="5"/>
       <c r="M17" s="5"/>
     </row>
-    <row r="18" spans="1:13" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" ht="59" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="5"/>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="28">
+      <c r="D18" s="27">
         <v>0.91</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="28">
         <v>1</v>
       </c>
-      <c r="F18" s="26">
+      <c r="F18" s="25">
         <v>0.98</v>
       </c>
-      <c r="G18" s="26">
+      <c r="G18" s="25">
         <v>0.84</v>
       </c>
-      <c r="H18" s="30">
+      <c r="H18" s="29">
         <v>0.85299999999999998</v>
       </c>
-      <c r="I18" s="24">
+      <c r="I18" s="23">
         <v>0.379</v>
       </c>
-      <c r="J18" s="36"/>
-      <c r="K18" s="9"/>
+      <c r="J18" s="35" t="s">
+        <v>38</v>
+      </c>
+      <c r="K18" s="5"/>
       <c r="L18" s="5"/>
       <c r="M18" s="5"/>
     </row>
-    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" ht="44" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="5"/>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="32">
+      <c r="D19" s="31">
         <v>0.92</v>
       </c>
-      <c r="E19" s="33">
+      <c r="E19" s="32">
         <v>1</v>
       </c>
-      <c r="F19" s="26">
+      <c r="F19" s="25">
         <v>0.98</v>
       </c>
-      <c r="G19" s="26">
+      <c r="G19" s="25">
         <v>0.84</v>
       </c>
-      <c r="H19" s="26">
+      <c r="H19" s="25">
         <v>0.85599999999999998</v>
       </c>
-      <c r="I19" s="32">
+      <c r="I19" s="31">
         <v>0.35799999999999998</v>
       </c>
-      <c r="J19" s="34"/>
-      <c r="K19" s="9"/>
+      <c r="J19" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="K19" s="5"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="10"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="33"/>
+      <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" s="5"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="11"/>
-      <c r="D21" s="16"/>
-      <c r="E21" s="17"/>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="9"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="10"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="33"/>
+      <c r="K21" s="5"/>
       <c r="L21" s="5"/>
       <c r="M21" s="5"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" s="5"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="11"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="17"/>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="33"/>
+      <c r="K22" s="5"/>
       <c r="L22" s="5"/>
       <c r="M22" s="5"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" s="5"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="17"/>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="9"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="16"/>
+      <c r="H23" s="16"/>
+      <c r="I23" s="16"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="5"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" s="5"/>
-      <c r="B24" s="11"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="17"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="9"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="33"/>
+      <c r="K24" s="5"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" s="5"/>
-      <c r="B25" s="11"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="17"/>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="9"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="10"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="5"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" s="5"/>
-      <c r="B26" s="11"/>
-      <c r="C26" s="11"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="17"/>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="9"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="33"/>
+      <c r="K26" s="5"/>
       <c r="L26" s="5"/>
       <c r="M26" s="5"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" s="5"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="9"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
     </row>

--- a/Python/script/auto-labelling/model_results.xlsx
+++ b/Python/script/auto-labelling/model_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\PROJECT\Python\script\auto-labelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1FF949-9F56-46F1-89D4-195D4AC09E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06147A33-F839-40AF-AB4E-EBAD4A196C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7270" yWindow="0" windowWidth="12020" windowHeight="10890" xr2:uid="{830A0544-E844-44F6-953F-4378A8B534E0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{830A0544-E844-44F6-953F-4378A8B534E0}"/>
   </bookViews>
   <sheets>
     <sheet name="table results" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
   <si>
     <t>Model</t>
   </si>
@@ -178,6 +178,12 @@
   </si>
   <si>
     <t>Playing with hyp.yaml file with lr=0.001 for 20 epochs and using pre-trained weights from it0 (lost the files)</t>
+  </si>
+  <si>
+    <t>it19</t>
+  </si>
+  <si>
+    <t>Used the tune method on the yolov8-s model for 15 epochs, 20 iterations, adamw optimizer, val=True, plots=False, save=False to get ideal parameters</t>
   </si>
 </sst>
 </file>
@@ -5469,7 +5475,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F4697D10-9381-471B-8961-02BE0409BE18}" name="Tableau croisé dynamique11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F4697D10-9381-471B-8961-02BE0409BE18}" name="Tableau croisé dynamique11" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
   <location ref="A3:D22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0">
@@ -5959,9 +5965,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACF691FB-493A-400F-8B8D-CA08D27D8FBC}">
   <dimension ref="A1:M51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6605,17 +6611,23 @@
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:13" ht="87" x14ac:dyDescent="0.35">
       <c r="A20" s="5"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="10"/>
+      <c r="B20" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="D20" s="15"/>
       <c r="E20" s="16"/>
       <c r="F20" s="16"/>
       <c r="G20" s="16"/>
       <c r="H20" s="16"/>
       <c r="I20" s="16"/>
-      <c r="J20" s="33"/>
+      <c r="J20" s="33" t="s">
+        <v>47</v>
+      </c>
       <c r="K20" s="5"/>
       <c r="L20" s="5"/>
       <c r="M20" s="5"/>

--- a/Python/script/auto-labelling/model_results.xlsx
+++ b/Python/script/auto-labelling/model_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\PROJECT\Python\script\auto-labelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06147A33-F839-40AF-AB4E-EBAD4A196C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36327B7F-380F-480A-81CE-FAA968DD8336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{830A0544-E844-44F6-953F-4378A8B534E0}"/>
   </bookViews>
@@ -18,7 +18,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="51">
   <si>
     <t>Model</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Changes made</t>
   </si>
   <si>
-    <t>Using pre-trained weights of it17, ran for 20 epcohs and patience 10</t>
-  </si>
-  <si>
     <t>Moved back to optimizer AdamW for 35 epochs, 15 patience on the s model with no pre-trained weights</t>
   </si>
   <si>
@@ -185,11 +182,26 @@
   <si>
     <t>Used the tune method on the yolov8-s model for 15 epochs, 20 iterations, adamw optimizer, val=True, plots=False, save=False to get ideal parameters</t>
   </si>
+  <si>
+    <t>YOLOV8-OBB s</t>
+  </si>
+  <si>
+    <t>it20</t>
+  </si>
+  <si>
+    <t>Using pre-trained weights of it17, ran for 20 epochs and patience 10</t>
+  </si>
+  <si>
+    <t>While waiting for the tuning to complete, I decided to run a new model called OBB specifically for rounded objects. I didn't read the documentation in-depth the first time round or something but i trained on 35 epochs, patience 15, opt adamw, val=True, seed=1, img size=416, batch=16, cache=disk and no pre-trained weights; the results are bonkers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="166" formatCode="0.000"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,7 +273,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -437,20 +449,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -543,6 +586,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5475,7 +5551,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F4697D10-9381-471B-8961-02BE0409BE18}" name="Tableau croisé dynamique11" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{F4697D10-9381-471B-8961-02BE0409BE18}" name="Tableau croisé dynamique11" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23">
   <location ref="A3:D22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField showAll="0">
@@ -5966,1136 +6042,1155 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E17" sqref="E17"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.36328125" customWidth="1"/>
+    <col min="1" max="1" width="7.36328125" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.6328125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.453125" customWidth="1"/>
+    <col min="10" max="10" width="34.26953125" customWidth="1"/>
     <col min="11" max="11" width="4.7265625" customWidth="1"/>
     <col min="12" max="12" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="5"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="5"/>
+    <row r="2" spans="1:13" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="3"/>
       <c r="B2" s="10" t="s">
         <v>32</v>
       </c>
       <c r="C2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="38">
         <v>0.84</v>
       </c>
-      <c r="E2" s="16">
+      <c r="E2" s="18">
         <v>1</v>
       </c>
-      <c r="F2" s="16">
+      <c r="F2" s="18">
         <v>0.97</v>
       </c>
-      <c r="G2" s="17">
+      <c r="G2" s="42">
         <v>0.51</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="42">
         <v>0.45900000000000002</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="39">
         <v>0.46400000000000002</v>
       </c>
       <c r="J2" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
+        <v>44</v>
+      </c>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
     </row>
     <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="5"/>
-      <c r="B3" s="10" t="s">
+      <c r="A3" s="3"/>
+      <c r="B3" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="15">
         <v>0.73</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="17">
         <v>1</v>
       </c>
-      <c r="F3" s="16">
+      <c r="F3" s="14">
         <v>0.94</v>
       </c>
-      <c r="G3" s="16">
+      <c r="G3" s="14">
         <v>0.52</v>
       </c>
-      <c r="H3" s="16">
+      <c r="H3" s="14">
         <v>0.51100000000000001</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="34">
         <v>0.46200000000000002</v>
       </c>
-      <c r="J3" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="5"/>
-      <c r="L3" s="3"/>
-      <c r="M3" s="5" t="s">
+      <c r="J3" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K3" s="3"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="3" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="131" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="5"/>
-      <c r="B4" s="10" t="s">
+    <row r="4" spans="1:13" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+      <c r="B4" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="20">
+      <c r="D4" s="18">
         <v>0.85</v>
       </c>
-      <c r="E4" s="16">
+      <c r="E4" s="14">
         <v>1</v>
       </c>
-      <c r="F4" s="16">
+      <c r="F4" s="14">
         <v>0.96</v>
       </c>
-      <c r="G4" s="16">
+      <c r="G4" s="14">
         <v>0.68</v>
       </c>
-      <c r="H4" s="16">
+      <c r="H4" s="14">
         <v>0.67300000000000004</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="34">
         <v>0.37</v>
       </c>
-      <c r="J4" s="33" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
+      <c r="J4" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
     </row>
     <row r="5" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="5"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="3"/>
+      <c r="B5" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="16">
+      <c r="D5" s="14">
         <v>0.79</v>
       </c>
-      <c r="E5" s="16">
+      <c r="E5" s="14">
         <v>1</v>
       </c>
-      <c r="F5" s="16">
+      <c r="F5" s="14">
         <v>0.95</v>
       </c>
-      <c r="G5" s="16">
+      <c r="G5" s="14">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="14">
         <v>0.51600000000000001</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="34">
         <v>0.378</v>
       </c>
-      <c r="J5" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" s="5"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="5" t="s">
+      <c r="J5" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K5" s="3"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="3" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="5"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="3"/>
+      <c r="B6" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="16">
+      <c r="D6" s="14">
         <v>0.81</v>
       </c>
-      <c r="E6" s="16">
+      <c r="E6" s="14">
         <v>1</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="14">
         <v>0.94</v>
       </c>
-      <c r="G6" s="16">
+      <c r="G6" s="14">
         <v>0.65</v>
       </c>
-      <c r="H6" s="16">
+      <c r="H6" s="14">
         <v>0.624</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="34">
         <v>0.377</v>
       </c>
-      <c r="J6" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="5"/>
+      <c r="J6" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="5"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="3"/>
+      <c r="B7" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="16">
+      <c r="D7" s="14">
         <v>0.82</v>
       </c>
-      <c r="E7" s="16">
+      <c r="E7" s="14">
         <v>1</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="15">
         <v>0.93</v>
       </c>
-      <c r="G7" s="16">
+      <c r="G7" s="14">
         <v>0.71</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="14">
         <v>0.68100000000000005</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="34">
         <v>0.35899999999999999</v>
       </c>
-      <c r="J7" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="5"/>
+      <c r="J7" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="3"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" s="5"/>
-      <c r="B8" s="10" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="16">
+      <c r="D8" s="14">
         <v>0.84</v>
       </c>
-      <c r="E8" s="16">
+      <c r="E8" s="14">
         <v>1</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="14">
         <v>0.96</v>
       </c>
-      <c r="G8" s="16">
+      <c r="G8" s="14">
         <v>0.78</v>
       </c>
-      <c r="H8" s="16">
+      <c r="H8" s="14">
         <v>0.79200000000000004</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="34">
         <v>0.39500000000000002</v>
       </c>
-      <c r="J8" s="33" t="s">
+      <c r="J8" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" spans="1:13" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="3"/>
+      <c r="B9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0.86</v>
+      </c>
+      <c r="E9" s="14">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14">
+        <v>0.94</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0.81</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0.81499999999999995</v>
+      </c>
+      <c r="I9" s="34">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="J9" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="5"/>
-    </row>
-    <row r="9" spans="1:13" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A9" s="5"/>
-      <c r="B9" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0.86</v>
-      </c>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16">
-        <v>0.94</v>
-      </c>
-      <c r="G9" s="16">
-        <v>0.81</v>
-      </c>
-      <c r="H9" s="16">
-        <v>0.81499999999999995</v>
-      </c>
-      <c r="I9" s="16">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="J9" s="33" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" s="5"/>
-      <c r="B10" s="10" t="s">
+      <c r="A10" s="3"/>
+      <c r="B10" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="16">
+      <c r="D10" s="14">
         <v>0.86</v>
       </c>
-      <c r="E10" s="16">
+      <c r="E10" s="14">
         <v>1</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="14">
         <v>0.95</v>
       </c>
-      <c r="G10" s="16">
+      <c r="G10" s="14">
         <v>0.81</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="14">
         <v>0.83</v>
       </c>
-      <c r="I10" s="16">
+      <c r="I10" s="34">
         <v>0.42499999999999999</v>
       </c>
-      <c r="J10" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
+      <c r="J10" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="5"/>
-      <c r="B11" s="10" t="s">
+      <c r="A11" s="3"/>
+      <c r="B11" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="16">
+      <c r="D11" s="14">
         <v>0.86</v>
       </c>
-      <c r="E11" s="16">
+      <c r="E11" s="14">
         <v>1</v>
       </c>
-      <c r="F11" s="16">
+      <c r="F11" s="14">
         <v>0.95</v>
       </c>
-      <c r="G11" s="16">
+      <c r="G11" s="14">
         <v>0.79</v>
       </c>
-      <c r="H11" s="16">
+      <c r="H11" s="14">
         <v>0.80500000000000005</v>
       </c>
-      <c r="I11" s="16">
+      <c r="I11" s="34">
         <v>0.39700000000000002</v>
       </c>
-      <c r="J11" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5"/>
+      <c r="J11" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="10" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="16">
+      <c r="D12" s="14">
         <v>0.86</v>
       </c>
-      <c r="E12" s="16">
+      <c r="E12" s="14">
         <v>1</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="15">
         <v>0.93</v>
       </c>
-      <c r="G12" s="16">
+      <c r="G12" s="14">
         <v>0.78</v>
       </c>
-      <c r="H12" s="16">
+      <c r="H12" s="14">
         <v>0.78100000000000003</v>
       </c>
-      <c r="I12" s="16">
+      <c r="I12" s="34">
         <v>0.41299999999999998</v>
       </c>
-      <c r="J12" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="K12" s="5"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="5"/>
+      <c r="J12" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="3"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="10" t="s">
+      <c r="A13" s="3"/>
+      <c r="B13" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="16">
+      <c r="D13" s="14">
         <v>0.85</v>
       </c>
-      <c r="E13" s="16">
+      <c r="E13" s="14">
         <v>1</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="14">
         <v>0.94</v>
       </c>
-      <c r="G13" s="16">
+      <c r="G13" s="14">
         <v>0.79</v>
       </c>
-      <c r="H13" s="16">
+      <c r="H13" s="14">
         <v>0.79100000000000004</v>
       </c>
-      <c r="I13" s="16">
+      <c r="I13" s="34">
         <v>0.435</v>
       </c>
-      <c r="J13" s="33" t="s">
-        <v>42</v>
-      </c>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="5"/>
+      <c r="J13" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3"/>
+      <c r="M13" s="3"/>
     </row>
     <row r="14" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="5"/>
-      <c r="B14" s="10" t="s">
+      <c r="A14" s="3"/>
+      <c r="B14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="21" t="s">
+      <c r="C14" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="20">
         <v>0.86</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="20">
         <v>1</v>
       </c>
-      <c r="F14" s="22">
+      <c r="F14" s="20">
         <v>0.96</v>
       </c>
-      <c r="G14" s="15">
+      <c r="G14" s="13">
         <v>0.8</v>
       </c>
-      <c r="H14" s="15">
+      <c r="H14" s="13">
         <v>0.82</v>
       </c>
-      <c r="I14" s="15">
+      <c r="I14" s="35">
         <v>0.41</v>
       </c>
-      <c r="J14" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="K14" s="5"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="5"/>
+      <c r="J14" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
     </row>
-    <row r="15" spans="1:13" ht="102" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="11" t="s">
+    <row r="15" spans="1:13" ht="73" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="3"/>
+      <c r="B15" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="D15" s="20">
+      <c r="D15" s="18">
         <v>0.89</v>
       </c>
-      <c r="E15" s="20">
+      <c r="E15" s="18">
         <v>1</v>
       </c>
-      <c r="F15" s="20">
+      <c r="F15" s="18">
         <v>0.97</v>
       </c>
-      <c r="G15" s="23">
+      <c r="G15" s="21">
         <v>0.83</v>
       </c>
-      <c r="H15" s="23">
+      <c r="H15" s="21">
         <v>0.877</v>
       </c>
-      <c r="I15" s="23">
+      <c r="I15" s="36">
         <v>0.39</v>
       </c>
-      <c r="J15" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="5"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="5"/>
+      <c r="J15" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+      <c r="M15" s="3"/>
     </row>
     <row r="16" spans="1:13" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="5"/>
-      <c r="B16" s="10" t="s">
+      <c r="A16" s="3"/>
+      <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C16" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="13">
         <v>0.9</v>
       </c>
-      <c r="E16" s="16">
+      <c r="E16" s="14">
         <v>1</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="14">
         <v>0.97</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="14">
         <v>0.83</v>
       </c>
-      <c r="H16" s="16">
+      <c r="H16" s="14">
         <v>0.84</v>
       </c>
-      <c r="I16" s="16">
+      <c r="I16" s="34">
         <v>0.46200000000000002</v>
       </c>
-      <c r="J16" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="K16" s="5"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="5"/>
+      <c r="J16" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
     </row>
-    <row r="17" spans="1:13" ht="73" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="5"/>
-      <c r="B17" s="12" t="s">
+    <row r="17" spans="1:13" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="3"/>
+      <c r="B17" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="25">
+      <c r="D17" s="23">
         <v>0.93</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="24">
         <v>1</v>
       </c>
-      <c r="F17" s="15">
+      <c r="F17" s="13">
         <v>0.97</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="14">
         <v>0.83</v>
       </c>
-      <c r="H17" s="15">
+      <c r="H17" s="13">
         <v>0.84099999999999997</v>
       </c>
-      <c r="I17" s="15">
+      <c r="I17" s="35">
         <v>0.55800000000000005</v>
       </c>
-      <c r="J17" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K17" s="5"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="5"/>
+      <c r="J17" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" s="3"/>
+      <c r="L17" s="3"/>
+      <c r="M17" s="3"/>
     </row>
-    <row r="18" spans="1:13" ht="59" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="5"/>
-      <c r="B18" s="13" t="s">
+    <row r="18" spans="1:13" ht="44.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="3"/>
+      <c r="B18" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="14" t="s">
+      <c r="C18" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D18" s="27">
+      <c r="D18" s="25">
         <v>0.91</v>
       </c>
-      <c r="E18" s="28">
+      <c r="E18" s="26">
         <v>1</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="23">
         <v>0.98</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="23">
         <v>0.84</v>
       </c>
-      <c r="H18" s="29">
+      <c r="H18" s="27">
         <v>0.85299999999999998</v>
       </c>
-      <c r="I18" s="23">
+      <c r="I18" s="36">
         <v>0.379</v>
       </c>
-      <c r="J18" s="35" t="s">
-        <v>38</v>
-      </c>
-      <c r="K18" s="5"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="5"/>
+      <c r="J18" s="33" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="3"/>
+      <c r="M18" s="3"/>
     </row>
-    <row r="19" spans="1:13" ht="44" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="5"/>
-      <c r="B19" s="14" t="s">
+    <row r="19" spans="1:13" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="3"/>
+      <c r="B19" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="29">
         <v>0.92</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="30">
         <v>1</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="23">
         <v>0.98</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="23">
         <v>0.84</v>
       </c>
-      <c r="H19" s="25">
+      <c r="H19" s="23">
         <v>0.85599999999999998</v>
       </c>
-      <c r="I19" s="31">
+      <c r="I19" s="37">
         <v>0.35799999999999998</v>
       </c>
-      <c r="J19" s="33" t="s">
-        <v>37</v>
-      </c>
-      <c r="K19" s="5"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="5"/>
+      <c r="J19" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="87" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="14" t="s">
+    <row r="20" spans="1:13" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="3"/>
+      <c r="B20" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="C20" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="16"/>
-      <c r="J20" s="33" t="s">
+      <c r="K20" s="3"/>
+      <c r="L20" s="3"/>
+      <c r="M20" s="3"/>
+    </row>
+    <row r="21" spans="1:13" ht="131" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="3"/>
+      <c r="B21" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="16"/>
-      <c r="G21" s="16"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="16"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
+      <c r="C21" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="38">
+        <v>0.94</v>
+      </c>
+      <c r="E21" s="18">
+        <v>1</v>
+      </c>
+      <c r="F21" s="18">
+        <v>0.99</v>
+      </c>
+      <c r="G21" s="18">
+        <v>0.91</v>
+      </c>
+      <c r="H21" s="18">
+        <v>0.94</v>
+      </c>
+      <c r="I21" s="39">
+        <v>0.35399999999999998</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="16"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="16"/>
-      <c r="J22" s="33"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
+      <c r="A22" s="3"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="31"/>
+      <c r="K22" s="3"/>
+      <c r="L22" s="3"/>
+      <c r="M22" s="3"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="16"/>
-      <c r="H23" s="16"/>
-      <c r="I23" s="16"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
+      <c r="A23" s="3"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="31"/>
+      <c r="K23" s="3"/>
+      <c r="L23" s="3"/>
+      <c r="M23" s="3"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="16"/>
-      <c r="H24" s="16"/>
-      <c r="I24" s="16"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
+      <c r="A24" s="3"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14"/>
+      <c r="F24" s="14"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="31"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+      <c r="M24" s="3"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="16"/>
-      <c r="H25" s="16"/>
-      <c r="I25" s="16"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
+      <c r="A25" s="3"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="14"/>
+      <c r="F25" s="14"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="31"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
+      <c r="M25" s="3"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="33"/>
-      <c r="K26" s="5"/>
-      <c r="L26" s="5"/>
-      <c r="M26" s="5"/>
+      <c r="A26" s="3"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="31"/>
+      <c r="K26" s="3"/>
+      <c r="L26" s="3"/>
+      <c r="M26" s="3"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A27" s="5"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
-      <c r="G27" s="16"/>
-      <c r="H27" s="16"/>
-      <c r="I27" s="16"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="5"/>
-      <c r="L27" s="5"/>
-      <c r="M27" s="5"/>
+      <c r="A27" s="3"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="14"/>
+      <c r="F27" s="14"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="31"/>
+      <c r="K27" s="3"/>
+      <c r="L27" s="3"/>
+      <c r="M27" s="3"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A28" s="5"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="5"/>
-      <c r="D28" s="5"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="5"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="5"/>
-      <c r="J28" s="5"/>
-      <c r="K28" s="5"/>
-      <c r="L28" s="5"/>
-      <c r="M28" s="5"/>
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+      <c r="L28" s="3"/>
+      <c r="M28" s="3"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A29" s="5"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="5"/>
-      <c r="D29" s="5"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="5"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="5"/>
-      <c r="J29" s="5"/>
-      <c r="K29" s="5"/>
-      <c r="L29" s="5"/>
-      <c r="M29" s="5"/>
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="3"/>
+      <c r="M29" s="3"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A30" s="5"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="5"/>
-      <c r="D30" s="5"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="5"/>
-      <c r="I30" s="5"/>
-      <c r="J30" s="5"/>
-      <c r="K30" s="5"/>
-      <c r="L30" s="5"/>
-      <c r="M30" s="5"/>
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="3"/>
+      <c r="M30" s="3"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A31" s="5"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="5"/>
-      <c r="H31" s="5"/>
-      <c r="I31" s="5"/>
-      <c r="J31" s="5"/>
-      <c r="K31" s="5"/>
-      <c r="L31" s="5"/>
-      <c r="M31" s="5"/>
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="5"/>
-      <c r="G32" s="5"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A33" s="5"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="5"/>
-      <c r="J33" s="5"/>
-      <c r="K33" s="5"/>
-      <c r="L33" s="5"/>
-      <c r="M33" s="5"/>
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="3"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A34" s="5"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="5"/>
-      <c r="G34" s="5"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="5"/>
-      <c r="J34" s="5"/>
-      <c r="K34" s="5"/>
-      <c r="L34" s="5"/>
-      <c r="M34" s="5"/>
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A35" s="5"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A36" s="5"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="5"/>
-      <c r="G36" s="5"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="5"/>
-      <c r="J36" s="5"/>
-      <c r="K36" s="5"/>
-      <c r="L36" s="5"/>
-      <c r="M36" s="5"/>
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A37" s="5"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="5"/>
-      <c r="G37" s="5"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="5"/>
-      <c r="J37" s="5"/>
-      <c r="K37" s="5"/>
-      <c r="L37" s="5"/>
-      <c r="M37" s="5"/>
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A38" s="5"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="5"/>
-      <c r="G38" s="5"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="5"/>
-      <c r="J38" s="5"/>
-      <c r="K38" s="5"/>
-      <c r="L38" s="5"/>
-      <c r="M38" s="5"/>
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A39" s="5"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="5"/>
-      <c r="G39" s="5"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="5"/>
-      <c r="J39" s="5"/>
-      <c r="K39" s="5"/>
-      <c r="L39" s="5"/>
-      <c r="M39" s="5"/>
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A40" s="5"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="5"/>
-      <c r="G40" s="5"/>
-      <c r="H40" s="5"/>
-      <c r="I40" s="5"/>
-      <c r="J40" s="5"/>
-      <c r="K40" s="5"/>
-      <c r="L40" s="5"/>
-      <c r="M40" s="5"/>
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A41" s="5"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="5"/>
-      <c r="F41" s="5"/>
-      <c r="G41" s="5"/>
-      <c r="H41" s="5"/>
-      <c r="I41" s="5"/>
-      <c r="J41" s="5"/>
-      <c r="K41" s="5"/>
-      <c r="L41" s="5"/>
-      <c r="M41" s="5"/>
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="5"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="5"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="5"/>
-      <c r="L42" s="5"/>
-      <c r="M42" s="5"/>
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="5"/>
-      <c r="G43" s="5"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="5"/>
-      <c r="J43" s="5"/>
-      <c r="K43" s="5"/>
-      <c r="L43" s="5"/>
-      <c r="M43" s="5"/>
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3"/>
+      <c r="F43" s="3"/>
+      <c r="G43" s="3"/>
+      <c r="H43" s="3"/>
+      <c r="I43" s="3"/>
+      <c r="J43" s="3"/>
+      <c r="K43" s="3"/>
+      <c r="L43" s="3"/>
+      <c r="M43" s="3"/>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="5"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="5"/>
-      <c r="J44" s="5"/>
-      <c r="K44" s="5"/>
-      <c r="L44" s="5"/>
-      <c r="M44" s="5"/>
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="3"/>
+      <c r="G44" s="3"/>
+      <c r="H44" s="3"/>
+      <c r="I44" s="3"/>
+      <c r="J44" s="3"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="3"/>
+      <c r="M44" s="3"/>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="5"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="3"/>
+      <c r="G45" s="3"/>
+      <c r="H45" s="3"/>
+      <c r="I45" s="3"/>
+      <c r="J45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="3"/>
+      <c r="M45" s="3"/>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="5"/>
-      <c r="J46" s="5"/>
-      <c r="K46" s="5"/>
-      <c r="L46" s="5"/>
-      <c r="M46" s="5"/>
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3"/>
+      <c r="F46" s="3"/>
+      <c r="G46" s="3"/>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
+      <c r="J46" s="3"/>
+      <c r="K46" s="3"/>
+      <c r="L46" s="3"/>
+      <c r="M46" s="3"/>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="5"/>
-      <c r="G47" s="5"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="5"/>
-      <c r="J47" s="5"/>
-      <c r="K47" s="5"/>
-      <c r="L47" s="5"/>
-      <c r="M47" s="5"/>
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" s="3"/>
+      <c r="G47" s="3"/>
+      <c r="H47" s="3"/>
+      <c r="I47" s="3"/>
+      <c r="J47" s="3"/>
+      <c r="K47" s="3"/>
+      <c r="L47" s="3"/>
+      <c r="M47" s="3"/>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A48" s="5"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="5"/>
-      <c r="G48" s="5"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="5"/>
-      <c r="J48" s="5"/>
-      <c r="K48" s="5"/>
-      <c r="L48" s="5"/>
-      <c r="M48" s="5"/>
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="3"/>
+      <c r="G48" s="3"/>
+      <c r="H48" s="3"/>
+      <c r="I48" s="3"/>
+      <c r="J48" s="3"/>
+      <c r="K48" s="3"/>
+      <c r="L48" s="3"/>
+      <c r="M48" s="3"/>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A49" s="5"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="5"/>
-      <c r="G49" s="5"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="5"/>
-      <c r="J49" s="5"/>
-      <c r="K49" s="5"/>
-      <c r="L49" s="5"/>
-      <c r="M49" s="5"/>
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="3"/>
+      <c r="G49" s="3"/>
+      <c r="H49" s="3"/>
+      <c r="I49" s="3"/>
+      <c r="J49" s="3"/>
+      <c r="K49" s="3"/>
+      <c r="L49" s="3"/>
+      <c r="M49" s="3"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A50" s="5"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
+      <c r="H50" s="3"/>
+      <c r="I50" s="3"/>
+      <c r="J50" s="3"/>
+      <c r="K50" s="3"/>
+      <c r="L50" s="3"/>
+      <c r="M50" s="3"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A51" s="5"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="5"/>
-      <c r="G51" s="5"/>
-      <c r="H51" s="5"/>
-      <c r="I51" s="5"/>
-      <c r="J51" s="5"/>
-      <c r="K51" s="5"/>
-      <c r="L51" s="5"/>
-      <c r="M51" s="5"/>
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
+      <c r="H51" s="3"/>
+      <c r="I51" s="3"/>
+      <c r="J51" s="3"/>
+      <c r="K51" s="3"/>
+      <c r="L51" s="3"/>
+      <c r="M51" s="3"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:I14">
@@ -7130,7 +7225,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B3" t="s">
@@ -7144,259 +7239,259 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="6">
         <v>0.84</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="6">
         <v>0.45900000000000002</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="6">
         <v>0.51</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="6">
         <v>0.73</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>0.51100000000000001</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>0.52</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="6">
         <v>0.85</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="6">
         <v>0.67300000000000004</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="6">
         <v>0.68</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="6">
         <v>0.79</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="6">
         <v>0.51600000000000001</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="6">
         <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="6">
         <v>0.81</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="6">
         <v>0.624</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="6">
         <v>0.65</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="6">
         <v>0.82</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="6">
         <v>0.68100000000000005</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="6">
         <v>0.71</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="6">
         <v>0.84</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="6">
         <v>0.79200000000000004</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="6">
         <v>0.78</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="8">
+      <c r="B11" s="6">
         <v>0.86</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="6">
         <v>0.81499999999999995</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="6">
         <v>0.81</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="6">
         <v>0.86</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="6">
         <v>0.83</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="6">
         <v>0.81</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="6">
         <v>0.86</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="6">
         <v>0.80500000000000005</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="6">
         <v>0.79</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="6">
         <v>0.86</v>
       </c>
-      <c r="C14" s="8">
+      <c r="C14" s="6">
         <v>0.78100000000000003</v>
       </c>
-      <c r="D14" s="8">
+      <c r="D14" s="6">
         <v>0.78</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="6">
         <v>0.85</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="6">
         <v>0.79100000000000004</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="6">
         <v>0.79</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="6">
         <v>0.86</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="6">
         <v>0.82</v>
       </c>
-      <c r="D16" s="8">
+      <c r="D16" s="6">
         <v>0.8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="6">
         <v>0.89</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="6">
         <v>0.877</v>
       </c>
-      <c r="D17" s="8">
+      <c r="D17" s="6">
         <v>0.83</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="6">
         <v>0.9</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="6">
         <v>0.84</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="6">
         <v>0.83</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="6">
         <v>0.93</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="6">
         <v>0.84099999999999997</v>
       </c>
-      <c r="D19" s="8">
+      <c r="D19" s="6">
         <v>0.83</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="6">
         <v>0.91</v>
       </c>
-      <c r="C20" s="8">
+      <c r="C20" s="6">
         <v>0.85299999999999998</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="6">
         <v>0.84</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="6">
         <v>0.92</v>
       </c>
-      <c r="C21" s="8">
+      <c r="C21" s="6">
         <v>0.85599999999999998</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="6">
         <v>0.84</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B22">

--- a/Python/script/auto-labelling/model_results.xlsx
+++ b/Python/script/auto-labelling/model_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\PROJECT\Python\script\auto-labelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36327B7F-380F-480A-81CE-FAA968DD8336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81834881-69E5-4206-A366-A0EC6FA2D277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{830A0544-E844-44F6-953F-4378A8B534E0}"/>
   </bookViews>
@@ -200,7 +200,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -587,28 +587,28 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="3" borderId="14" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6043,7 +6043,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/Python/script/auto-labelling/model_results.xlsx
+++ b/Python/script/auto-labelling/model_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\PROJECT\Python\script\auto-labelling\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81834881-69E5-4206-A366-A0EC6FA2D277}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C5EDABE-F5EC-4D85-9A2C-488A439A91AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{830A0544-E844-44F6-953F-4378A8B534E0}"/>
   </bookViews>
@@ -180,9 +180,6 @@
     <t>it19</t>
   </si>
   <si>
-    <t>Used the tune method on the yolov8-s model for 15 epochs, 20 iterations, adamw optimizer, val=True, plots=False, save=False to get ideal parameters</t>
-  </si>
-  <si>
     <t>YOLOV8-OBB s</t>
   </si>
   <si>
@@ -193,6 +190,9 @@
   </si>
   <si>
     <t>While waiting for the tuning to complete, I decided to run a new model called OBB specifically for rounded objects. I didn't read the documentation in-depth the first time round or something but i trained on 35 epochs, patience 15, opt adamw, val=True, seed=1, img size=416, batch=16, cache=disk and no pre-trained weights; the results are bonkers</t>
+  </si>
+  <si>
+    <t>Used the tune method on the yolov8-s model for 15 epochs, 20 iterations, adamw optimizer, val=True, plots=False, save=False to get ideal parameters -- decided to abandon tuning for now to focus on other things</t>
   </si>
 </sst>
 </file>
@@ -6042,7 +6042,7 @@
   <dimension ref="A1:M51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
@@ -6682,13 +6682,13 @@
         <v>0.35799999999999998</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
     </row>
-    <row r="20" spans="1:13" ht="58.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" ht="87.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="40" t="s">
         <v>21</v>
@@ -6703,7 +6703,7 @@
       <c r="H20" s="20"/>
       <c r="I20" s="41"/>
       <c r="J20" s="32" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="K20" s="3"/>
       <c r="L20" s="3"/>
@@ -6712,10 +6712,10 @@
     <row r="21" spans="1:13" ht="131" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A21" s="3"/>
       <c r="B21" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="10" t="s">
         <v>47</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>48</v>
       </c>
       <c r="D21" s="38">
         <v>0.94</v>
@@ -6736,7 +6736,7 @@
         <v>0.35399999999999998</v>
       </c>
       <c r="J21" s="33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K21" s="3"/>
       <c r="L21" s="3"/>
